--- a/Working Memory/AllStimuli.xlsx
+++ b/Working Memory/AllStimuli.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver.Frank\PycharmProjects\BeRNN_ExpSetUp\Working Memory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\PycharmProjects\BeRNN_Exp\Relational Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88D251-6682-4F70-A4BD-C0690BCB2B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,148 +20,197 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>22_5</t>
-  </si>
-  <si>
-    <t>67_5</t>
-  </si>
-  <si>
-    <t>135_0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>180_0</t>
   </si>
   <si>
-    <t>225_0</t>
-  </si>
-  <si>
-    <t>292_5</t>
-  </si>
-  <si>
-    <t>337_5</t>
+    <t>180_0w0_25.png</t>
+  </si>
+  <si>
+    <t>180_0w0_50.png</t>
+  </si>
+  <si>
+    <t>180_0w0_75.png</t>
+  </si>
+  <si>
+    <t>180_0w1_0.png</t>
+  </si>
+  <si>
+    <t>360_0w0_25.png</t>
+  </si>
+  <si>
+    <t>360_0w0_50.png</t>
+  </si>
+  <si>
+    <t>360_0w0_75.png</t>
+  </si>
+  <si>
+    <t>360_0w1_0.png</t>
   </si>
   <si>
     <t>360_0</t>
   </si>
   <si>
-    <t>22_5w0_25.png</t>
-  </si>
-  <si>
-    <t>67_5w0_25.png</t>
-  </si>
-  <si>
-    <t>135_0w0_25.png</t>
-  </si>
-  <si>
-    <t>180_0w0_25.png</t>
-  </si>
-  <si>
-    <t>225_0w0_25.png</t>
-  </si>
-  <si>
-    <t>292_5w0_25.png</t>
-  </si>
-  <si>
-    <t>337_5w0_25.png</t>
-  </si>
-  <si>
-    <t>360_0w0_25.png</t>
-  </si>
-  <si>
-    <t>22_5w0_50.png</t>
-  </si>
-  <si>
-    <t>67_5w0_50.png</t>
-  </si>
-  <si>
-    <t>135_0w0_50.png</t>
-  </si>
-  <si>
-    <t>180_0w0_50.png</t>
-  </si>
-  <si>
-    <t>225_0w0_50.png</t>
-  </si>
-  <si>
-    <t>292_5w0_50.png</t>
-  </si>
-  <si>
-    <t>337_5w0_50.png</t>
-  </si>
-  <si>
-    <t>360_0w0_50.png</t>
-  </si>
-  <si>
-    <t>22_5w0_75.png</t>
-  </si>
-  <si>
-    <t>67_5w0_75.png</t>
-  </si>
-  <si>
-    <t>135_0w0_75.png</t>
-  </si>
-  <si>
-    <t>180_0w0_75.png</t>
-  </si>
-  <si>
-    <t>225_0w0_75.png</t>
-  </si>
-  <si>
-    <t>292_5w0_75.png</t>
-  </si>
-  <si>
-    <t>337_5w0_75.png</t>
-  </si>
-  <si>
-    <t>360_0w0_75.png</t>
-  </si>
-  <si>
-    <t>22_5w1_0.png</t>
-  </si>
-  <si>
-    <t>67_5w1_0.png</t>
-  </si>
-  <si>
-    <t>135_0w1_0.png</t>
-  </si>
-  <si>
-    <t>180_0w1_0.png</t>
-  </si>
-  <si>
-    <t>225_0w1_0.png</t>
-  </si>
-  <si>
-    <t>292_5w1_0.png</t>
-  </si>
-  <si>
-    <t>337_5w1_0.png</t>
-  </si>
-  <si>
-    <t>360_0w1_0.png</t>
+    <t>300_0</t>
+  </si>
+  <si>
+    <t>240_0</t>
+  </si>
+  <si>
+    <t>120_0</t>
+  </si>
+  <si>
+    <t>60_0</t>
+  </si>
+  <si>
+    <t>60_1</t>
+  </si>
+  <si>
+    <t>120_1</t>
+  </si>
+  <si>
+    <t>180_1</t>
+  </si>
+  <si>
+    <t>240_1</t>
+  </si>
+  <si>
+    <t>300_1</t>
+  </si>
+  <si>
+    <t>360_1</t>
+  </si>
+  <si>
+    <t>60_0w0_25.png</t>
+  </si>
+  <si>
+    <t>60_0w0_50.png</t>
+  </si>
+  <si>
+    <t>60_0w0_75.png</t>
+  </si>
+  <si>
+    <t>60_0w1_0.png</t>
+  </si>
+  <si>
+    <t>120_0w0_25.png</t>
+  </si>
+  <si>
+    <t>120_0w0_50.png</t>
+  </si>
+  <si>
+    <t>120_0w0_75.png</t>
+  </si>
+  <si>
+    <t>120_0w1_0.png</t>
+  </si>
+  <si>
+    <t>240_0w0_25.png</t>
+  </si>
+  <si>
+    <t>240_0w0_50.png</t>
+  </si>
+  <si>
+    <t>240_0w0_75.png</t>
+  </si>
+  <si>
+    <t>240_0w1_0.png</t>
+  </si>
+  <si>
+    <t>300_0w0_25.png</t>
+  </si>
+  <si>
+    <t>300_0w0_50.png</t>
+  </si>
+  <si>
+    <t>300_0w0_75.png</t>
+  </si>
+  <si>
+    <t>300_0w1_0.png</t>
+  </si>
+  <si>
+    <t>60_1w0_25.png</t>
+  </si>
+  <si>
+    <t>60_1w0_50.png</t>
+  </si>
+  <si>
+    <t>60_1w0_75.png</t>
+  </si>
+  <si>
+    <t>60_1w1_0.png</t>
+  </si>
+  <si>
+    <t>120_1w0_25.png</t>
+  </si>
+  <si>
+    <t>120_1w0_50.png</t>
+  </si>
+  <si>
+    <t>120_1w0_75.png</t>
+  </si>
+  <si>
+    <t>120_1w1_0.png</t>
+  </si>
+  <si>
+    <t>180_1w0_25.png</t>
+  </si>
+  <si>
+    <t>180_1w0_50.png</t>
+  </si>
+  <si>
+    <t>180_1w0_75.png</t>
+  </si>
+  <si>
+    <t>180_1w1_0.png</t>
+  </si>
+  <si>
+    <t>240_1w0_25.png</t>
+  </si>
+  <si>
+    <t>240_1w0_50.png</t>
+  </si>
+  <si>
+    <t>240_1w0_75.png</t>
+  </si>
+  <si>
+    <t>240_1w1_0.png</t>
+  </si>
+  <si>
+    <t>300_1w0_25.png</t>
+  </si>
+  <si>
+    <t>300_1w0_50.png</t>
+  </si>
+  <si>
+    <t>300_1w0_75.png</t>
+  </si>
+  <si>
+    <t>300_1w1_0.png</t>
+  </si>
+  <si>
+    <t>360_1w0_25.png</t>
+  </si>
+  <si>
+    <t>360_1w0_50.png</t>
+  </si>
+  <si>
+    <t>360_1w0_75.png</t>
+  </si>
+  <si>
+    <t>360_1w1_0.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,9 +247,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -474,163 +535,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="16" width="15.7109375" customWidth="1"/>
+    <col min="15" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>